--- a/www/terminologies/ASS-A15-SexeProvenanceISO-Sexe.xlsx
+++ b/www/terminologies/ASS-A15-SexeProvenanceISO-Sexe.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -260,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -360,13 +366,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -383,87 +397,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>25</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/www/terminologies/ASS-A15-SexeProvenanceISO-Sexe.xlsx
+++ b/www/terminologies/ASS-A15-SexeProvenanceISO-Sexe.xlsx
@@ -99,13 +99,13 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R267-SexeProvenanceISO/FHIR/TRE-R267-SexeProvenanceISO</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R267-SexeProvenanceISO/FHIR/TRE-R267-SexeProvenanceISO|20231215120000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R249-Sexe/FHIR/TRE-R249-Sexe</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R249-Sexe/FHIR/TRE-R249-Sexe|20231215120000</t>
   </si>
   <si>
     <t>0</t>
